--- a/标准项目模板.xlsx
+++ b/标准项目模板.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD65856C-1DC7-49FB-8920-AF6973F572E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A4D386-EB4C-4915-966A-58D9834781FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>项目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,6 +53,22 @@
   </si>
   <si>
     <t>标准项目4</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>备注1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注2</t>
+  </si>
+  <si>
+    <t>备注3</t>
+  </si>
+  <si>
+    <t>备注4</t>
   </si>
 </sst>
 </file>
@@ -95,8 +111,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -377,15 +396,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -398,8 +417,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -412,8 +434,11 @@
       <c r="D2">
         <v>100</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -426,8 +451,11 @@
       <c r="D3">
         <v>200</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -440,8 +468,11 @@
       <c r="D4">
         <v>300</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -453,6 +484,9 @@
       </c>
       <c r="D5">
         <v>400</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
